--- a/database/industries/shoyande/shegol/product/yearly.xlsx
+++ b/database/industries/shoyande/shegol/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358184A-B583-4488-B6B5-5E9EA9DAF4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/09</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>صابون</t>
   </si>
   <si>
@@ -121,9 +122,6 @@
   </si>
   <si>
     <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>ریال / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -135,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +303,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -317,7 +315,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -364,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -399,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -679,19 +711,19 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>5605</v>
+        <v>6029</v>
       </c>
       <c r="F10" s="9">
-        <v>6029</v>
+        <v>8799</v>
       </c>
       <c r="G10" s="9">
-        <v>8799</v>
+        <v>11660</v>
       </c>
       <c r="H10" s="9">
-        <v>11660</v>
+        <v>9351</v>
       </c>
       <c r="I10" s="9">
-        <v>9351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -711,11 +743,11 @@
       <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -727,19 +759,19 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>6028</v>
+        <v>7027</v>
       </c>
       <c r="F12" s="9">
-        <v>7027</v>
+        <v>8222</v>
       </c>
       <c r="G12" s="9">
-        <v>8222</v>
+        <v>11801</v>
       </c>
       <c r="H12" s="9">
-        <v>11801</v>
+        <v>11148</v>
       </c>
       <c r="I12" s="9">
-        <v>11148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -751,19 +783,19 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2713</v>
+        <v>2523</v>
       </c>
       <c r="F13" s="11">
-        <v>2523</v>
+        <v>3638</v>
       </c>
       <c r="G13" s="11">
-        <v>3638</v>
+        <v>3487</v>
       </c>
       <c r="H13" s="11">
-        <v>3487</v>
+        <v>3221</v>
       </c>
       <c r="I13" s="11">
-        <v>3221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -774,8 +806,8 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>3060</v>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -799,19 +831,19 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>26182</v>
+        <v>23019</v>
       </c>
       <c r="F15" s="11">
-        <v>23019</v>
+        <v>30120</v>
       </c>
       <c r="G15" s="11">
-        <v>30120</v>
+        <v>30421</v>
       </c>
       <c r="H15" s="11">
-        <v>30421</v>
+        <v>30146</v>
       </c>
       <c r="I15" s="11">
-        <v>30146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -829,8 +861,8 @@
       <c r="G16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
+      <c r="H16" s="9">
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -901,11 +933,11 @@
       <c r="G19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -916,8 +948,8 @@
         <v>11</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>192</v>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>13</v>
@@ -940,8 +972,8 @@
         <v>11</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>1129</v>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>13</v>
@@ -968,16 +1000,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -991,17 +1023,17 @@
       <c r="E23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="F23" s="11">
         <v>1238</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
+      <c r="G23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1011,19 +1043,19 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>44910</v>
+        <v>38599</v>
       </c>
       <c r="F24" s="13">
-        <v>38599</v>
+        <v>52019</v>
       </c>
       <c r="G24" s="13">
-        <v>52019</v>
+        <v>57373</v>
       </c>
       <c r="H24" s="13">
-        <v>57373</v>
+        <v>53874</v>
       </c>
       <c r="I24" s="13">
-        <v>53874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1121,19 +1153,19 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>5913</v>
+        <v>6369</v>
       </c>
       <c r="F31" s="11">
-        <v>6369</v>
+        <v>8742</v>
       </c>
       <c r="G31" s="11">
-        <v>8742</v>
+        <v>11233</v>
       </c>
       <c r="H31" s="11">
-        <v>11233</v>
+        <v>9094</v>
       </c>
       <c r="I31" s="11">
-        <v>9094</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1141,23 +1173,23 @@
         <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>13</v>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="9">
-        <v>-146</v>
+      <c r="I32" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1165,20 +1197,20 @@
         <v>12</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>13</v>
@@ -1193,19 +1225,19 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>5954</v>
+        <v>7268</v>
       </c>
       <c r="F34" s="9">
-        <v>7268</v>
+        <v>7801</v>
       </c>
       <c r="G34" s="9">
-        <v>7801</v>
+        <v>11918</v>
       </c>
       <c r="H34" s="9">
-        <v>11918</v>
+        <v>11188</v>
       </c>
       <c r="I34" s="9">
-        <v>11188</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1217,19 +1249,19 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>2785</v>
+        <v>2588</v>
       </c>
       <c r="F35" s="11">
-        <v>2588</v>
+        <v>3615</v>
       </c>
       <c r="G35" s="11">
-        <v>3615</v>
+        <v>3418</v>
       </c>
       <c r="H35" s="11">
-        <v>3418</v>
+        <v>3156</v>
       </c>
       <c r="I35" s="11">
-        <v>3156</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1265,19 +1297,19 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>25779</v>
+        <v>23673</v>
       </c>
       <c r="F37" s="11">
-        <v>23673</v>
+        <v>29363</v>
       </c>
       <c r="G37" s="11">
-        <v>29363</v>
+        <v>31074</v>
       </c>
       <c r="H37" s="11">
-        <v>31074</v>
+        <v>30046</v>
       </c>
       <c r="I37" s="11">
-        <v>30046</v>
+        <v>22453</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1286,8 +1318,8 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>13</v>
+      <c r="E38" s="9">
+        <v>0</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -1367,11 +1399,11 @@
       <c r="G41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="11">
-        <v>0</v>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1382,20 +1414,20 @@
         <v>11</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>13</v>
+      <c r="E42" s="9">
+        <v>1</v>
       </c>
       <c r="F42" s="9">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2</v>
+      </c>
+      <c r="I42" s="9">
         <v>1</v>
-      </c>
-      <c r="G42" s="9">
-        <v>2</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1409,17 +1441,17 @@
       <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
+      <c r="F43" s="11">
+        <v>1173</v>
       </c>
       <c r="G43" s="11">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
-      <c r="I43" s="11">
-        <v>0</v>
+      <c r="I43" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1429,19 +1461,19 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>40431</v>
+        <v>39899</v>
       </c>
       <c r="F44" s="13">
-        <v>39899</v>
+        <v>50696</v>
       </c>
       <c r="G44" s="13">
-        <v>50696</v>
+        <v>57643</v>
       </c>
       <c r="H44" s="13">
-        <v>57643</v>
+        <v>53340</v>
       </c>
       <c r="I44" s="13">
-        <v>53340</v>
+        <v>38782</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -1539,19 +1571,19 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>415974</v>
+        <v>599433</v>
       </c>
       <c r="F51" s="11">
-        <v>599433</v>
+        <v>1417868</v>
       </c>
       <c r="G51" s="11">
-        <v>1417868</v>
+        <v>2270732</v>
       </c>
       <c r="H51" s="11">
-        <v>2270732</v>
+        <v>3219849</v>
       </c>
       <c r="I51" s="11">
-        <v>3219849</v>
+        <v>3388836</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -1562,8 +1594,8 @@
         <v>31</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>13</v>
+      <c r="E52" s="9">
+        <v>0</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -1572,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
         <v>-35905</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1587,19 +1619,19 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>154560</v>
+        <v>258411</v>
       </c>
       <c r="F53" s="11">
-        <v>258411</v>
+        <v>479835</v>
       </c>
       <c r="G53" s="11">
-        <v>479835</v>
+        <v>1073370</v>
       </c>
       <c r="H53" s="11">
-        <v>1073370</v>
+        <v>1370589</v>
       </c>
       <c r="I53" s="11">
-        <v>1370589</v>
+        <v>1045391</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1611,19 +1643,19 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>369972</v>
+        <v>470684</v>
       </c>
       <c r="F54" s="9">
-        <v>470684</v>
+        <v>1171045</v>
       </c>
       <c r="G54" s="9">
-        <v>1171045</v>
+        <v>1337354</v>
       </c>
       <c r="H54" s="9">
-        <v>1337354</v>
+        <v>2198596</v>
       </c>
       <c r="I54" s="9">
-        <v>2198596</v>
+        <v>1784627</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1659,19 +1691,19 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>904224</v>
+        <v>1254123</v>
       </c>
       <c r="F56" s="9">
-        <v>1254123</v>
+        <v>2573974</v>
       </c>
       <c r="G56" s="9">
-        <v>2573974</v>
+        <v>3514005</v>
       </c>
       <c r="H56" s="9">
-        <v>3514005</v>
+        <v>5346862</v>
       </c>
       <c r="I56" s="9">
-        <v>5346862</v>
+        <v>5013990</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -1682,8 +1714,8 @@
         <v>31</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
+      <c r="E57" s="11">
+        <v>0</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
@@ -1763,11 +1795,11 @@
       <c r="G60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="9">
+      <c r="H60" s="9">
         <v>-897198</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -1778,20 +1810,20 @@
         <v>31</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>438</v>
       </c>
       <c r="F61" s="11">
-        <v>438</v>
+        <v>1706</v>
       </c>
       <c r="G61" s="11">
-        <v>1706</v>
+        <v>402</v>
       </c>
       <c r="H61" s="11">
-        <v>402</v>
+        <v>4066</v>
       </c>
       <c r="I61" s="11">
-        <v>4066</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -1805,17 +1837,17 @@
       <c r="E62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>13</v>
+      <c r="F62" s="9">
+        <v>21115</v>
       </c>
       <c r="G62" s="9">
-        <v>21115</v>
+        <v>0</v>
       </c>
       <c r="H62" s="9">
         <v>0</v>
       </c>
-      <c r="I62" s="9">
-        <v>0</v>
+      <c r="I62" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1825,19 +1857,19 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>1844730</v>
+        <v>2583089</v>
       </c>
       <c r="F63" s="15">
-        <v>2583089</v>
+        <v>5665543</v>
       </c>
       <c r="G63" s="15">
-        <v>5665543</v>
+        <v>8195863</v>
       </c>
       <c r="H63" s="15">
-        <v>8195863</v>
+        <v>11206859</v>
       </c>
       <c r="I63" s="15">
-        <v>11206859</v>
+        <v>11234217</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1935,19 +1967,19 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>70349061</v>
+        <v>94117287</v>
       </c>
       <c r="F70" s="11">
-        <v>94117287</v>
+        <v>162190345</v>
       </c>
       <c r="G70" s="11">
-        <v>162190345</v>
+        <v>202147755</v>
       </c>
       <c r="H70" s="11">
-        <v>202147755</v>
+        <v>354063009</v>
       </c>
       <c r="I70" s="11">
-        <v>354063009</v>
+        <v>448080920</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -1955,11 +1987,11 @@
         <v>12</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>13</v>
+      <c r="E71" s="9">
+        <v>0</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -1970,8 +2002,8 @@
       <c r="H71" s="9">
         <v>0</v>
       </c>
-      <c r="I71" s="9">
-        <v>0</v>
+      <c r="I71" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -1983,19 +2015,19 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>25959019</v>
+        <v>35554623</v>
       </c>
       <c r="F72" s="11">
-        <v>35554623</v>
+        <v>61509422</v>
       </c>
       <c r="G72" s="11">
-        <v>61509422</v>
+        <v>90066263</v>
       </c>
       <c r="H72" s="11">
-        <v>90066263</v>
+        <v>122505274</v>
       </c>
       <c r="I72" s="11">
-        <v>122505274</v>
+        <v>155332987</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -2007,19 +2039,19 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>132844524</v>
+        <v>181871716</v>
       </c>
       <c r="F73" s="9">
-        <v>181871716</v>
+        <v>323940526</v>
       </c>
       <c r="G73" s="9">
-        <v>323940526</v>
+        <v>391244527</v>
       </c>
       <c r="H73" s="9">
-        <v>391244527</v>
+        <v>696640051</v>
       </c>
       <c r="I73" s="9">
-        <v>696640051</v>
+        <v>876966585</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2055,19 +2087,19 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>35075992</v>
+        <v>52976936</v>
       </c>
       <c r="F75" s="9">
-        <v>52976936</v>
+        <v>87660457</v>
       </c>
       <c r="G75" s="9">
-        <v>87660457</v>
+        <v>113083858</v>
       </c>
       <c r="H75" s="9">
-        <v>113083858</v>
+        <v>177955868</v>
       </c>
       <c r="I75" s="9">
-        <v>177955868</v>
+        <v>223310471</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2075,11 +2107,11 @@
         <v>18</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>0</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
@@ -2159,11 +2191,11 @@
       <c r="G79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0</v>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2174,20 +2206,20 @@
         <v>33</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
+      <c r="E80" s="11">
+        <v>438000000</v>
       </c>
       <c r="F80" s="11">
-        <v>438000000</v>
+        <v>853000000</v>
       </c>
       <c r="G80" s="11">
-        <v>853000000</v>
+        <v>1614457831</v>
       </c>
       <c r="H80" s="11">
-        <v>1614457831</v>
+        <v>2033000000</v>
       </c>
       <c r="I80" s="11">
-        <v>2033000000</v>
+        <v>1806578947</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -2201,17 +2233,17 @@
       <c r="E81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>13</v>
+      <c r="F81" s="9">
+        <v>18000853</v>
       </c>
       <c r="G81" s="9">
-        <v>18000853</v>
+        <v>0</v>
       </c>
       <c r="H81" s="9">
         <v>0</v>
       </c>
-      <c r="I81" s="9">
-        <v>0</v>
+      <c r="I81" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2246,7 +2278,7 @@
     </row>
     <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2284,20 +2316,20 @@
         <v>31</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>13</v>
+      <c r="E87" s="9">
+        <v>-319821</v>
       </c>
       <c r="F87" s="9">
-        <v>-319821</v>
+        <v>-823088</v>
       </c>
       <c r="G87" s="9">
-        <v>-823088</v>
+        <v>-1502929</v>
       </c>
       <c r="H87" s="9">
-        <v>-1502929</v>
+        <v>-2415095</v>
       </c>
       <c r="I87" s="9">
-        <v>-2415095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -2308,8 +2340,8 @@
         <v>31</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>13</v>
+      <c r="E88" s="11">
+        <v>0</v>
       </c>
       <c r="F88" s="11">
         <v>0</v>
@@ -2320,8 +2352,8 @@
       <c r="H88" s="11">
         <v>0</v>
       </c>
-      <c r="I88" s="11">
-        <v>0</v>
+      <c r="I88" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2332,20 +2364,20 @@
         <v>31</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>13</v>
+      <c r="E89" s="9">
+        <v>-182189</v>
       </c>
       <c r="F89" s="9">
-        <v>-182189</v>
+        <v>-326448</v>
       </c>
       <c r="G89" s="9">
-        <v>-326448</v>
+        <v>-726250</v>
       </c>
       <c r="H89" s="9">
-        <v>-726250</v>
+        <v>-1062256</v>
       </c>
       <c r="I89" s="9">
-        <v>-1062256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2356,20 +2388,20 @@
         <v>31</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>-237139</v>
       </c>
       <c r="F90" s="11">
-        <v>-237139</v>
+        <v>-610991</v>
       </c>
       <c r="G90" s="11">
-        <v>-610991</v>
+        <v>-774553</v>
       </c>
       <c r="H90" s="11">
-        <v>-774553</v>
+        <v>-1177229</v>
       </c>
       <c r="I90" s="11">
-        <v>-1177229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2380,20 +2412,20 @@
         <v>31</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>13</v>
+      <c r="E91" s="9">
+        <v>-721991</v>
       </c>
       <c r="F91" s="9">
-        <v>-721991</v>
+        <v>-1414792</v>
       </c>
       <c r="G91" s="9">
-        <v>-1414792</v>
+        <v>-1847656</v>
       </c>
       <c r="H91" s="9">
-        <v>-1847656</v>
+        <v>-3367798</v>
       </c>
       <c r="I91" s="9">
-        <v>-3367798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2404,8 +2436,8 @@
         <v>31</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>13</v>
+      <c r="E92" s="11">
+        <v>0</v>
       </c>
       <c r="F92" s="11">
         <v>0</v>
@@ -2437,11 +2469,11 @@
       <c r="G93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0</v>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2452,20 +2484,20 @@
         <v>31</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>-192</v>
       </c>
       <c r="F94" s="11">
-        <v>-192</v>
+        <v>-669</v>
       </c>
       <c r="G94" s="11">
-        <v>-669</v>
+        <v>-209</v>
       </c>
       <c r="H94" s="11">
-        <v>-209</v>
+        <v>-1098</v>
       </c>
       <c r="I94" s="11">
-        <v>-1098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2479,17 +2511,17 @@
       <c r="E95" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>13</v>
+      <c r="F95" s="9">
+        <v>-11233</v>
       </c>
       <c r="G95" s="9">
-        <v>-11233</v>
+        <v>0</v>
       </c>
       <c r="H95" s="9">
         <v>0</v>
       </c>
-      <c r="I95" s="9">
-        <v>0</v>
+      <c r="I95" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2499,19 +2531,19 @@
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>0</v>
+        <v>-1461332</v>
       </c>
       <c r="F96" s="15">
-        <v>-1461332</v>
+        <v>-3187221</v>
       </c>
       <c r="G96" s="15">
-        <v>-3187221</v>
+        <v>-4851597</v>
       </c>
       <c r="H96" s="15">
-        <v>-4851597</v>
+        <v>-8023476</v>
       </c>
       <c r="I96" s="15">
-        <v>-8023476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2546,7 +2578,7 @@
     </row>
     <row r="100" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -2584,20 +2616,20 @@
         <v>31</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
-        <v>13</v>
+      <c r="E102" s="9">
+        <v>279612</v>
       </c>
       <c r="F102" s="9">
-        <v>279612</v>
+        <v>594780</v>
       </c>
       <c r="G102" s="9">
-        <v>594780</v>
+        <v>767803</v>
       </c>
       <c r="H102" s="9">
-        <v>767803</v>
+        <v>804754</v>
       </c>
       <c r="I102" s="9">
-        <v>804754</v>
+        <v>3388836</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2614,14 +2646,14 @@
       <c r="F103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
+      <c r="G103" s="11">
+        <v>0</v>
       </c>
       <c r="H103" s="11">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11">
         <v>-35905</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2632,20 +2664,20 @@
         <v>31</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>13</v>
+      <c r="E104" s="9">
+        <v>76222</v>
       </c>
       <c r="F104" s="9">
-        <v>76222</v>
+        <v>153387</v>
       </c>
       <c r="G104" s="9">
-        <v>153387</v>
+        <v>347120</v>
       </c>
       <c r="H104" s="9">
-        <v>347120</v>
+        <v>308333</v>
       </c>
       <c r="I104" s="9">
-        <v>308333</v>
+        <v>1045391</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2656,20 +2688,20 @@
         <v>31</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>233545</v>
       </c>
       <c r="F105" s="11">
-        <v>233545</v>
+        <v>560054</v>
       </c>
       <c r="G105" s="11">
-        <v>560054</v>
+        <v>562801</v>
       </c>
       <c r="H105" s="11">
-        <v>562801</v>
+        <v>1021367</v>
       </c>
       <c r="I105" s="11">
-        <v>1021367</v>
+        <v>1784627</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -2680,20 +2712,20 @@
         <v>31</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>13</v>
+      <c r="E106" s="9">
+        <v>532132</v>
       </c>
       <c r="F106" s="9">
-        <v>532132</v>
+        <v>1159182</v>
       </c>
       <c r="G106" s="9">
-        <v>1159182</v>
+        <v>1666349</v>
       </c>
       <c r="H106" s="9">
-        <v>1666349</v>
+        <v>1979064</v>
       </c>
       <c r="I106" s="9">
-        <v>1979064</v>
+        <v>5013990</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2710,8 +2742,8 @@
       <c r="F107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="11" t="s">
-        <v>13</v>
+      <c r="G107" s="11">
+        <v>0</v>
       </c>
       <c r="H107" s="11">
         <v>0</v>
@@ -2737,11 +2769,11 @@
       <c r="G108" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="9">
+      <c r="H108" s="9">
         <v>-897198</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -2752,20 +2784,20 @@
         <v>31</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>13</v>
+      <c r="E109" s="11">
+        <v>246</v>
       </c>
       <c r="F109" s="11">
-        <v>246</v>
+        <v>1037</v>
       </c>
       <c r="G109" s="11">
-        <v>1037</v>
+        <v>193</v>
       </c>
       <c r="H109" s="11">
-        <v>193</v>
+        <v>2968</v>
       </c>
       <c r="I109" s="11">
-        <v>2968</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2779,17 +2811,17 @@
       <c r="E110" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>13</v>
+      <c r="F110" s="9">
+        <v>9882</v>
       </c>
       <c r="G110" s="9">
-        <v>9882</v>
+        <v>0</v>
       </c>
       <c r="H110" s="9">
         <v>0</v>
       </c>
-      <c r="I110" s="9">
-        <v>0</v>
+      <c r="I110" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -2799,19 +2831,19 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>1121757</v>
       </c>
       <c r="F111" s="15">
-        <v>1121757</v>
+        <v>2478322</v>
       </c>
       <c r="G111" s="15">
-        <v>2478322</v>
+        <v>3344266</v>
       </c>
       <c r="H111" s="15">
-        <v>3344266</v>
+        <v>3183383</v>
       </c>
       <c r="I111" s="15">
-        <v>3183383</v>
+        <v>11234217</v>
       </c>
     </row>
   </sheetData>
